--- a/data/資料庫筆記.xlsx
+++ b/data/資料庫筆記.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\中央資管\論文\自己的論文\v1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\中央資管\論文\自己的論文\Data_Browsing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C22CF-8CFC-4290-828C-5B87B380611E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068167C0-9C37-4A13-9A25-C119E9456F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{6D1B643B-8154-457D-8041-E1C6103E017A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D1B643B-8154-457D-8041-E1C6103E017A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="335">
   <si>
     <t>company_basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1293,13 +1293,44 @@
   </si>
   <si>
     <t>gross_profit_rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>籌碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選大盤指數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1465,6 +1496,25 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2062,7 +2112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2116,6 +2166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2472,18 +2525,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CDD567-EC4D-412F-9C4D-863718275D89}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2491,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +2560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2515,12 +2568,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2537,17 +2598,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.8" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.8" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.8" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.8" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2571,7 +2632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.8" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2579,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>175</v>
       </c>
@@ -2610,9 +2671,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2720,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2723,7 +2784,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -2764,7 +2825,7 @@
     <col min="40" max="40" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="B1" t="s">
         <v>248</v>
       </c>
@@ -2883,7 +2944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3020,7 +3081,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -3034,7 +3095,7 @@
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.8" thickBot="1">
       <c r="B1" t="s">
         <v>249</v>
       </c>
@@ -3069,7 +3130,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3183,9 @@
       <selection activeCell="B2" sqref="B2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3195,7 +3256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -3278,7 +3339,7 @@
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
@@ -3290,7 +3351,7 @@
     <col min="13" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="16.8" thickBot="1">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -3337,7 +3398,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3395,17 +3456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DEE45A-53FE-40C3-880C-9B03B87E72AF}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -3416,7 +3477,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -3427,7 +3488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -3438,7 +3499,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -3449,7 +3510,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3460,7 +3521,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3471,7 +3532,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3482,7 +3543,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3493,7 +3554,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3504,7 +3565,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3515,7 +3576,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3526,7 +3587,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3537,7 +3598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3548,7 +3609,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -3559,7 +3620,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3570,7 +3631,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3581,7 +3642,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3592,7 +3653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3603,7 +3664,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3614,7 +3675,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3625,7 +3686,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -3636,7 +3697,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -3647,7 +3708,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -3658,7 +3719,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -3669,7 +3730,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3680,7 +3741,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3691,7 +3752,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>257</v>
       </c>
@@ -3702,7 +3763,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3713,7 +3774,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>260</v>
       </c>
@@ -3724,7 +3785,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -3735,7 +3796,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>263</v>
       </c>
@@ -3746,7 +3807,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -3757,7 +3818,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -3768,7 +3829,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -3779,7 +3840,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -3790,7 +3851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -3801,7 +3862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -3812,7 +3873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -3823,7 +3884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -3834,7 +3895,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -3845,7 +3906,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -3856,7 +3917,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -3867,7 +3928,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -3878,7 +3939,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -3889,7 +3950,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -3900,7 +3961,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -3911,7 +3972,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -3922,7 +3983,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -3933,7 +3994,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>180</v>
       </c>
@@ -3944,7 +4005,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -3955,7 +4016,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -3966,7 +4027,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -3977,7 +4038,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -3988,7 +4049,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3999,7 +4060,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>331</v>
       </c>
@@ -4010,7 +4071,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -4021,7 +4082,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -4032,7 +4093,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -4043,7 +4104,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -4054,7 +4115,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -4065,7 +4126,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -4076,7 +4137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -4087,7 +4148,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -4098,7 +4159,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -4109,7 +4170,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -4120,7 +4181,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -4131,7 +4192,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -4142,7 +4203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -4153,7 +4214,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -4164,7 +4225,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -4175,7 +4236,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -4186,7 +4247,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -4197,7 +4258,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -4208,7 +4269,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -4219,7 +4280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -4230,7 +4291,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -4241,7 +4302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -4252,7 +4313,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -4263,7 +4324,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -4274,7 +4335,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -4285,7 +4346,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -4296,7 +4357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -4307,7 +4368,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -4318,7 +4379,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -4329,7 +4390,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -4340,7 +4401,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -4351,7 +4412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -4362,7 +4423,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>196</v>
       </c>
@@ -4373,7 +4434,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -4384,7 +4445,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -4395,7 +4456,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>148</v>
       </c>
@@ -4406,7 +4467,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>303</v>
       </c>
@@ -4417,7 +4478,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>305</v>
       </c>
@@ -4428,7 +4489,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>307</v>
       </c>
@@ -4439,7 +4500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>275</v>
       </c>
@@ -4450,7 +4511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>309</v>
       </c>
@@ -4461,7 +4522,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>311</v>
       </c>
@@ -4472,7 +4533,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>313</v>
       </c>
@@ -4483,7 +4544,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>315</v>
       </c>
@@ -4494,7 +4555,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>317</v>
       </c>
@@ -4505,7 +4566,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>319</v>
       </c>
@@ -4516,7 +4577,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>321</v>
       </c>
@@ -4527,7 +4588,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>323</v>
       </c>
@@ -4538,7 +4599,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>325</v>
       </c>
@@ -4563,7 +4624,7 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
@@ -4571,8 +4632,8 @@
     <col min="18" max="18" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="6:18" ht="16.8" thickBot="1"/>
+    <row r="4" spans="6:18">
       <c r="F4" s="16" t="s">
         <v>152</v>
       </c>
@@ -4590,7 +4651,7 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:18">
       <c r="F5" s="6" t="s">
         <v>154</v>
       </c>
@@ -4616,7 +4677,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:18">
       <c r="F6" s="6" t="s">
         <v>156</v>
       </c>
@@ -4638,7 +4699,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:18">
       <c r="F7" s="13"/>
       <c r="G7" s="8" t="s">
         <v>248</v>
@@ -4656,7 +4717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="6:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:18" ht="16.8" thickBot="1">
       <c r="F8" s="14"/>
       <c r="G8" s="8" t="s">
         <v>16</v>
@@ -4674,7 +4735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:18">
       <c r="F9" s="14"/>
       <c r="G9" s="8" t="s">
         <v>210</v>
@@ -4688,7 +4749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:18">
       <c r="F10" s="14"/>
       <c r="G10" s="8" t="s">
         <v>55</v>
@@ -4702,7 +4763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="6:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:18" ht="16.8" thickBot="1">
       <c r="F11" s="14"/>
       <c r="G11" s="8" t="s">
         <v>211</v>
@@ -4716,7 +4777,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:18">
       <c r="F12" s="14"/>
       <c r="G12" s="8" t="s">
         <v>212</v>
@@ -4734,7 +4795,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:18">
       <c r="F13" s="14"/>
       <c r="G13" s="8" t="s">
         <v>213</v>
@@ -4754,7 +4815,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:18">
       <c r="F14" s="14"/>
       <c r="G14" s="8" t="s">
         <v>214</v>
@@ -4774,7 +4835,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:18">
       <c r="F15" s="14"/>
       <c r="G15" s="8" t="s">
         <v>215</v>
@@ -4792,7 +4853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:18">
       <c r="F16" s="14"/>
       <c r="G16" s="8" t="s">
         <v>216</v>
@@ -4810,7 +4871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:18">
       <c r="F17" s="14"/>
       <c r="G17" s="8" t="s">
         <v>217</v>
@@ -4828,7 +4889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:18">
       <c r="F18" s="14"/>
       <c r="G18" s="8" t="s">
         <v>218</v>
@@ -4846,7 +4907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="6:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:18" ht="16.8" thickBot="1">
       <c r="F19" s="14"/>
       <c r="G19" s="8" t="s">
         <v>219</v>
@@ -4864,7 +4925,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="6:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:18" ht="16.8" thickBot="1">
       <c r="F20" s="14"/>
       <c r="G20" s="8" t="s">
         <v>220</v>
@@ -4878,13 +4939,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="6:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:18" ht="16.8" thickBot="1">
       <c r="F21" s="14"/>
       <c r="G21" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:18">
       <c r="F22" s="14"/>
       <c r="G22" s="8" t="s">
         <v>222</v>
@@ -4898,7 +4959,7 @@
       </c>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:18">
       <c r="F23" s="14"/>
       <c r="G23" s="8" t="s">
         <v>223</v>
@@ -4916,7 +4977,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:18">
       <c r="F24" s="14"/>
       <c r="G24" s="8" t="s">
         <v>224</v>
@@ -4934,7 +4995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:18">
       <c r="F25" s="14"/>
       <c r="G25" s="8" t="s">
         <v>225</v>
@@ -4948,7 +5009,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:18">
       <c r="F26" s="14"/>
       <c r="G26" s="8" t="s">
         <v>226</v>
@@ -4962,7 +5023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:18">
       <c r="F27" s="14"/>
       <c r="G27" s="8" t="s">
         <v>273</v>
@@ -4976,7 +5037,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:18">
       <c r="F28" s="14"/>
       <c r="G28" s="8" t="s">
         <v>228</v>
@@ -4990,7 +5051,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:18">
       <c r="F29" s="14"/>
       <c r="G29" s="8" t="s">
         <v>229</v>
@@ -5004,7 +5065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:18">
       <c r="F30" s="14"/>
       <c r="G30" s="8" t="s">
         <v>230</v>
@@ -5018,7 +5079,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:18">
       <c r="F31" s="14"/>
       <c r="G31" s="8" t="s">
         <v>231</v>
@@ -5032,7 +5093,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:18">
       <c r="F32" s="14"/>
       <c r="G32" s="8" t="s">
         <v>232</v>
@@ -5046,7 +5107,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:15">
       <c r="F33" s="14"/>
       <c r="G33" s="8" t="s">
         <v>233</v>
@@ -5060,7 +5121,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15">
       <c r="F34" s="14"/>
       <c r="G34" s="8" t="s">
         <v>234</v>
@@ -5074,7 +5135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="6:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:15" ht="16.8" thickBot="1">
       <c r="F35" s="14"/>
       <c r="G35" s="8" t="s">
         <v>235</v>
@@ -5088,7 +5149,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15">
       <c r="F36" s="14"/>
       <c r="G36" s="8" t="s">
         <v>236</v>
@@ -5098,7 +5159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15">
       <c r="F37" s="14"/>
       <c r="G37" s="8" t="s">
         <v>237</v>
@@ -5108,7 +5169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15">
       <c r="F38" s="14"/>
       <c r="G38" s="8" t="s">
         <v>239</v>
@@ -5118,7 +5179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15">
       <c r="F39" s="14"/>
       <c r="G39" s="8" t="s">
         <v>238</v>
@@ -5128,7 +5189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15">
       <c r="F40" s="14"/>
       <c r="G40" s="8" t="s">
         <v>240</v>
@@ -5138,7 +5199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15">
       <c r="F41" s="14"/>
       <c r="G41" s="8" t="s">
         <v>274</v>
@@ -5148,7 +5209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15">
       <c r="F42" s="14"/>
       <c r="G42" s="8" t="s">
         <v>199</v>
@@ -5158,7 +5219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15">
       <c r="F43" s="14"/>
       <c r="G43" s="8" t="s">
         <v>200</v>
@@ -5168,7 +5229,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15">
       <c r="F44" s="14"/>
       <c r="G44" s="8" t="s">
         <v>201</v>
@@ -5178,7 +5239,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="6:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:15" ht="16.8" thickBot="1">
       <c r="F45" s="15"/>
       <c r="G45" s="5" t="s">
         <v>202</v>
@@ -5188,7 +5249,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="6:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:15" ht="16.8" thickBot="1">
       <c r="J46" s="15"/>
       <c r="K46" s="5" t="s">
         <v>173</v>

--- a/data/資料庫筆記.xlsx
+++ b/data/資料庫筆記.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\中央資管\論文\自己的論文\Data_Browsing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068167C0-9C37-4A13-9A25-C119E9456F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7C1C10-CAB1-4189-A729-B28906347860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D1B643B-8154-457D-8041-E1C6103E017A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6D1B643B-8154-457D-8041-E1C6103E017A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="338">
   <si>
     <t>company_basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1323,6 +1323,18 @@
       </rPr>
       <t>選大盤指數</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營收變動率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度營收變動率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度營收成長率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2146,6 +2158,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2166,9 +2181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2527,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CDD567-EC4D-412F-9C4D-863718275D89}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2580,7 +2592,7 @@
       <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2778,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB347981-6714-46B5-9B9F-9B1892F6EB8E}">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3027,7 +3039,7 @@
         <v>111</v>
       </c>
       <c r="AB2" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="AC2" t="s">
         <v>113</v>
@@ -3064,6 +3076,14 @@
       </c>
       <c r="AN2" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="AA3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3098,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4634,22 +4654,22 @@
   <sheetData>
     <row r="3" spans="6:18" ht="16.8" thickBot="1"/>
     <row r="4" spans="6:18">
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="13"/>
+      <c r="N4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="Q4" s="11" t="s">
+      <c r="O4" s="13"/>
+      <c r="Q4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="6:18">
       <c r="F5" s="6" t="s">
@@ -4684,7 +4704,7 @@
       <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="8" t="s">
         <v>149</v>
       </c>
@@ -4694,17 +4714,17 @@
       <c r="O6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="6:18">
-      <c r="F7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="8" t="s">
         <v>150</v>
       </c>
@@ -4712,17 +4732,17 @@
       <c r="O7" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="6:18" ht="16.8" thickBot="1">
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="5" t="s">
         <v>151</v>
       </c>
@@ -4730,13 +4750,13 @@
       <c r="O8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="6:18">
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="8" t="s">
         <v>210</v>
       </c>
@@ -4744,13 +4764,13 @@
       <c r="O9" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="6:18">
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="8" t="s">
         <v>55</v>
       </c>
@@ -4758,13 +4778,13 @@
       <c r="O10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="6:18" ht="16.8" thickBot="1">
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="8" t="s">
         <v>211</v>
       </c>
@@ -4772,31 +4792,31 @@
       <c r="O11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="6:18">
-      <c r="F12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="N12" s="3"/>
       <c r="O12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="6:18">
-      <c r="F13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="8" t="s">
         <v>213</v>
       </c>
@@ -4810,13 +4830,13 @@
       <c r="O13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="6:18">
-      <c r="F14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="8" t="s">
         <v>214</v>
       </c>
@@ -4830,17 +4850,17 @@
       <c r="O14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="6:18">
-      <c r="F15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="8" t="s">
         <v>18</v>
       </c>
@@ -4848,17 +4868,17 @@
       <c r="O15" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="6:18">
-      <c r="F16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="8" t="s">
         <v>159</v>
       </c>
@@ -4866,17 +4886,17 @@
       <c r="O16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="6:18">
-      <c r="F17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="8" t="s">
         <v>20</v>
       </c>
@@ -4884,17 +4904,17 @@
       <c r="O17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="18" spans="6:18">
-      <c r="F18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="8" t="s">
         <v>160</v>
       </c>
@@ -4902,17 +4922,17 @@
       <c r="O18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="6:18" ht="16.8" thickBot="1">
-      <c r="F19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="5" t="s">
         <v>242</v>
       </c>
@@ -4920,13 +4940,13 @@
       <c r="O19" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="6:18" ht="16.8" thickBot="1">
-      <c r="F20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="8" t="s">
         <v>220</v>
       </c>
@@ -4934,33 +4954,33 @@
       <c r="O20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Q20" s="15"/>
+      <c r="Q20" s="16"/>
       <c r="R20" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="6:18" ht="16.8" thickBot="1">
-      <c r="F21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="22" spans="6:18">
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="N22" s="16" t="s">
+      <c r="K22" s="18"/>
+      <c r="N22" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="O22" s="17"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="6:18">
-      <c r="F23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="8" t="s">
         <v>223</v>
       </c>
@@ -4978,7 +4998,7 @@
       </c>
     </row>
     <row r="24" spans="6:18">
-      <c r="F24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="8" t="s">
         <v>224</v>
       </c>
@@ -4996,11 +5016,11 @@
       </c>
     </row>
     <row r="25" spans="6:18">
-      <c r="F25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="8" t="s">
         <v>272</v>
       </c>
@@ -5010,11 +5030,11 @@
       </c>
     </row>
     <row r="26" spans="6:18">
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J26" s="14"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="8" t="s">
         <v>16</v>
       </c>
@@ -5024,11 +5044,11 @@
       </c>
     </row>
     <row r="27" spans="6:18">
-      <c r="F27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="8" t="s">
         <v>23</v>
       </c>
@@ -5038,11 +5058,11 @@
       </c>
     </row>
     <row r="28" spans="6:18">
-      <c r="F28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J28" s="14"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="8" t="s">
         <v>24</v>
       </c>
@@ -5052,11 +5072,11 @@
       </c>
     </row>
     <row r="29" spans="6:18">
-      <c r="F29" s="14"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J29" s="14"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="8" t="s">
         <v>25</v>
       </c>
@@ -5066,11 +5086,11 @@
       </c>
     </row>
     <row r="30" spans="6:18">
-      <c r="F30" s="14"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="8" t="s">
         <v>26</v>
       </c>
@@ -5080,11 +5100,11 @@
       </c>
     </row>
     <row r="31" spans="6:18">
-      <c r="F31" s="14"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J31" s="14"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="8" t="s">
         <v>27</v>
       </c>
@@ -5094,11 +5114,11 @@
       </c>
     </row>
     <row r="32" spans="6:18">
-      <c r="F32" s="14"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J32" s="14"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="8" t="s">
         <v>28</v>
       </c>
@@ -5108,11 +5128,11 @@
       </c>
     </row>
     <row r="33" spans="6:15">
-      <c r="F33" s="14"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J33" s="14"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="8" t="s">
         <v>30</v>
       </c>
@@ -5122,11 +5142,11 @@
       </c>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="14"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J34" s="14"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="8" t="s">
         <v>29</v>
       </c>
@@ -5136,11 +5156,11 @@
       </c>
     </row>
     <row r="35" spans="6:15" ht="16.8" thickBot="1">
-      <c r="F35" s="14"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="J35" s="14"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="8" t="s">
         <v>164</v>
       </c>
@@ -5150,107 +5170,107 @@
       </c>
     </row>
     <row r="36" spans="6:15">
-      <c r="F36" s="14"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J36" s="14"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="6:15">
-      <c r="F37" s="14"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J37" s="14"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="6:15">
-      <c r="F38" s="14"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J38" s="14"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="6:15">
-      <c r="F39" s="14"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="6:15">
-      <c r="F40" s="14"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="J40" s="14"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="6:15">
-      <c r="F41" s="14"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J41" s="14"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="6:15">
-      <c r="F42" s="14"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="J42" s="14"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="43" spans="6:15">
-      <c r="F43" s="14"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="6:15">
-      <c r="F44" s="14"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="14"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="6:15" ht="16.8" thickBot="1">
-      <c r="F45" s="15"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J45" s="14"/>
+      <c r="J45" s="15"/>
       <c r="K45" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="46" spans="6:15" ht="16.8" thickBot="1">
-      <c r="J46" s="15"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="5" t="s">
         <v>173</v>
       </c>
